--- a/eszközök.xlsx
+++ b/eszközök.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Márk\Desktop\Vla\-blank-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2977A362-CD0C-4038-84E7-874299A3C1FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12A6552-C363-4FCD-B009-245245B66D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F5B6F0A1-D8F2-402C-BD0D-C7B70AA42420}"/>
   </bookViews>
@@ -187,10 +187,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,7 +532,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,22 +545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -597,7 +595,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>184290</v>
       </c>
       <c r="E3">
@@ -660,7 +658,7 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>135900</v>
       </c>
       <c r="E6">
@@ -708,13 +706,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
         <f>SUM(E2:E8)</f>
         <v>2134070</v>
       </c>
